--- a/output/20221109/tables/betas_hh.xlsx
+++ b/output/20221109/tables/betas_hh.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="18">
   <si>
     <t>Outcome</t>
   </si>
@@ -167,10 +167,10 @@
         <v>15</v>
       </c>
       <c r="H2" s="1">
-        <v>0.15926669538021088</v>
+        <v>0.16301143169403076</v>
       </c>
       <c r="I2" s="1">
-        <v>0.53374010324478149</v>
+        <v>0.5299953818321228</v>
       </c>
     </row>
     <row r="3">
@@ -184,10 +184,10 @@
         <v>8</v>
       </c>
       <c r="D3" s="1">
-        <v>0.34650340676307678</v>
+        <v>0.38143458962440491</v>
       </c>
       <c r="E3" s="1">
-        <v>0.093618355691432953</v>
+        <v>0.078820571303367615</v>
       </c>
       <c r="F3" t="s">
         <v>5</v>
@@ -196,10 +196,10 @@
         <v>15</v>
       </c>
       <c r="H3" s="1">
-        <v>0.15926669538021088</v>
+        <v>0.22694626450538635</v>
       </c>
       <c r="I3" s="1">
-        <v>0.53374010324478149</v>
+        <v>0.53592288494110107</v>
       </c>
     </row>
     <row r="4">
@@ -213,10 +213,10 @@
         <v>9</v>
       </c>
       <c r="D4" s="1">
-        <v>0.3501109778881073</v>
+        <v>0.39644512534141541</v>
       </c>
       <c r="E4" s="1">
-        <v>0.091486096382141113</v>
+        <v>0.07859821617603302</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -225,10 +225,10 @@
         <v>15</v>
       </c>
       <c r="H4" s="1">
-        <v>0.16713878512382507</v>
+        <v>0.24239261448383331</v>
       </c>
       <c r="I4" s="1">
-        <v>0.53308320045471191</v>
+        <v>0.55049765110015869</v>
       </c>
     </row>
     <row r="5">
@@ -242,10 +242,10 @@
         <v>10</v>
       </c>
       <c r="D5" s="1">
-        <v>0.37285584211349487</v>
+        <v>0.4135589599609375</v>
       </c>
       <c r="E5" s="1">
-        <v>0.085471294820308685</v>
+        <v>0.072071172297000885</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -254,10 +254,10 @@
         <v>15</v>
       </c>
       <c r="H5" s="1">
-        <v>0.2019132524728775</v>
+        <v>0.27229946851730347</v>
       </c>
       <c r="I5" s="1">
-        <v>0.54379844665527344</v>
+        <v>0.55481845140457153</v>
       </c>
     </row>
     <row r="6">
@@ -283,10 +283,10 @@
         <v>15</v>
       </c>
       <c r="H6" s="1">
-        <v>0.85755085945129395</v>
+        <v>0.85838252305984497</v>
       </c>
       <c r="I6" s="1">
-        <v>0.94071602821350098</v>
+        <v>0.93988436460494995</v>
       </c>
     </row>
     <row r="7">
@@ -312,10 +312,10 @@
         <v>15</v>
       </c>
       <c r="H7" s="1">
-        <v>0.86307364702224731</v>
+        <v>0.86374819278717041</v>
       </c>
       <c r="I7" s="1">
-        <v>0.93053096532821655</v>
+        <v>0.92985641956329346</v>
       </c>
     </row>
     <row r="8">
@@ -341,10 +341,10 @@
         <v>15</v>
       </c>
       <c r="H8" s="1">
-        <v>0.86493551731109619</v>
+        <v>0.86556857824325562</v>
       </c>
       <c r="I8" s="1">
-        <v>0.92823874950408936</v>
+        <v>0.92760568857192993</v>
       </c>
     </row>
     <row r="9">
@@ -370,10 +370,10 @@
         <v>15</v>
       </c>
       <c r="H9" s="1">
-        <v>0.86461097002029419</v>
+        <v>0.86522281169891357</v>
       </c>
       <c r="I9" s="1">
-        <v>0.92579597234725952</v>
+        <v>0.92518413066864014</v>
       </c>
     </row>
     <row r="10">
@@ -399,10 +399,10 @@
         <v>15</v>
       </c>
       <c r="H10" s="1">
-        <v>0.19173914194107056</v>
+        <v>0.19332195818424225</v>
       </c>
       <c r="I10" s="1">
-        <v>0.35002052783966064</v>
+        <v>0.34843769669532776</v>
       </c>
     </row>
     <row r="11">
@@ -428,10 +428,10 @@
         <v>15</v>
       </c>
       <c r="H11" s="1">
-        <v>0.16681018471717834</v>
+        <v>0.16804452240467072</v>
       </c>
       <c r="I11" s="1">
-        <v>0.29024481773376465</v>
+        <v>0.28901046514511108</v>
       </c>
     </row>
     <row r="12">
@@ -457,10 +457,10 @@
         <v>15</v>
       </c>
       <c r="H12" s="1">
-        <v>0.17523150146007538</v>
+        <v>0.17637309432029724</v>
       </c>
       <c r="I12" s="1">
-        <v>0.28939095139503479</v>
+        <v>0.28824937343597412</v>
       </c>
     </row>
     <row r="13">
@@ -486,10 +486,10 @@
         <v>15</v>
       </c>
       <c r="H13" s="1">
-        <v>0.17607766389846802</v>
+        <v>0.17728208005428314</v>
       </c>
       <c r="I13" s="1">
-        <v>0.29651832580566406</v>
+        <v>0.29531392455101013</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>15</v>
       </c>
       <c r="H14" s="1">
-        <v>0.13328923285007477</v>
+        <v>0.13654132187366486</v>
       </c>
       <c r="I14" s="1">
-        <v>0.45849829912185669</v>
+        <v>0.45524618029594421</v>
       </c>
     </row>
     <row r="15">
@@ -544,10 +544,10 @@
         <v>15</v>
       </c>
       <c r="H15" s="1">
-        <v>0.18896731734275818</v>
+        <v>0.19173696637153625</v>
       </c>
       <c r="I15" s="1">
-        <v>0.46593156456947327</v>
+        <v>0.46316191554069519</v>
       </c>
     </row>
     <row r="16">
@@ -573,10 +573,10 @@
         <v>15</v>
       </c>
       <c r="H16" s="1">
-        <v>0.20955538749694824</v>
+        <v>0.21224889159202576</v>
       </c>
       <c r="I16" s="1">
-        <v>0.47890651226043701</v>
+        <v>0.4762130081653595</v>
       </c>
     </row>
     <row r="17">
@@ -602,10 +602,10 @@
         <v>15</v>
       </c>
       <c r="H17" s="1">
-        <v>0.24008235335350037</v>
+        <v>0.24249014258384705</v>
       </c>
       <c r="I17" s="1">
-        <v>0.48086246848106384</v>
+        <v>0.47845467925071716</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +631,10 @@
         <v>15</v>
       </c>
       <c r="H18" s="1">
-        <v>-0.0079622939229011536</v>
+        <v>-0.0065314383246004581</v>
       </c>
       <c r="I18" s="1">
-        <v>0.13512325286865234</v>
+        <v>0.13369239866733551</v>
       </c>
     </row>
     <row r="19">
@@ -660,10 +660,10 @@
         <v>15</v>
       </c>
       <c r="H19" s="1">
-        <v>0.014066979289054871</v>
+        <v>0.015326528809964657</v>
       </c>
       <c r="I19" s="1">
-        <v>0.14002196490764618</v>
+        <v>0.13876241445541382</v>
       </c>
     </row>
     <row r="20">
@@ -689,10 +689,10 @@
         <v>15</v>
       </c>
       <c r="H20" s="1">
-        <v>0.0075208023190498352</v>
+        <v>0.0088002923876047134</v>
       </c>
       <c r="I20" s="1">
-        <v>0.13546982407569885</v>
+        <v>0.13419033586978912</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>15</v>
       </c>
       <c r="H21" s="1">
-        <v>0.0078701376914978027</v>
+        <v>0.0091563351452350616</v>
       </c>
       <c r="I21" s="1">
-        <v>0.13648992776870728</v>
+        <v>0.13520373404026031</v>
       </c>
     </row>
   </sheetData>

--- a/output/20221109/tables/betas_hh.xlsx
+++ b/output/20221109/tables/betas_hh.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="18">
   <si>
     <t>Outcome</t>
   </si>
